--- a/results/BoW_experiments.xlsx
+++ b/results/BoW_experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanlazov/Documents/dev/Cambridge_Courses/L95_Practical_1/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699E29C5-2567-5D48-A229-6B3AA74C42E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C63CDDB-6D59-7640-8718-00D7EAC51629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{14C6C621-F0A1-674A-B1A7-6C579B256165}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Naïve Bayes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SVM</t>
   </si>
@@ -46,6 +43,21 @@
   </si>
   <si>
     <t>unigrams + bigrams</t>
+  </si>
+  <si>
+    <t>unigrams +laplace</t>
+  </si>
+  <si>
+    <t>unigrams + bigrams + laplace</t>
+  </si>
+  <si>
+    <t>bigrams + laplace</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naïve Bayes simple test </t>
   </si>
 </sst>
 </file>
@@ -397,40 +409,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FB41D2-3465-DF46-9851-99DC534C0BF7}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="1" max="1" width="50.1640625" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" customWidth="1"/>
     <col min="3" max="3" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/results/BoW_experiments.xlsx
+++ b/results/BoW_experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanlazov/Documents/dev/Cambridge_Courses/L95_Practical_1/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C63CDDB-6D59-7640-8718-00D7EAC51629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176CF905-82EC-1347-8D4B-486D8ADCD5CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{14C6C621-F0A1-674A-B1A7-6C579B256165}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>SVM</t>
   </si>
@@ -58,6 +58,39 @@
   </si>
   <si>
     <t xml:space="preserve">Naïve Bayes simple test </t>
+  </si>
+  <si>
+    <t>Unigrams + Bigrams + Laplace</t>
+  </si>
+  <si>
+    <t>Fold 0</t>
+  </si>
+  <si>
+    <t>Fold 1</t>
+  </si>
+  <si>
+    <t>Fold 2</t>
+  </si>
+  <si>
+    <t>Fold 3</t>
+  </si>
+  <si>
+    <t>Fold 4</t>
+  </si>
+  <si>
+    <t>Fold 5</t>
+  </si>
+  <si>
+    <t>Fold 6</t>
+  </si>
+  <si>
+    <t>Fold 7</t>
+  </si>
+  <si>
+    <t>Fold 8</t>
+  </si>
+  <si>
+    <t>Fold 9</t>
   </si>
 </sst>
 </file>
@@ -409,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FB41D2-3465-DF46-9851-99DC534C0BF7}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,6 +496,61 @@
         <v>6</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
